--- a/Financials/Quarterly/SNP_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SNP_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E89DF4-0D29-44F2-ABE4-1E59BFC499B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,27 +743,27 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>60177500</v>
+        <v>61410600</v>
       </c>
       <c r="E8" s="3">
-        <v>70103900</v>
+        <v>71540400</v>
       </c>
       <c r="F8" s="3">
-        <v>72202400</v>
+        <v>73681900</v>
       </c>
       <c r="G8" s="3">
-        <v>81749300</v>
+        <v>83424400</v>
       </c>
       <c r="H8" s="3">
-        <v>69550600</v>
+        <v>70975700</v>
       </c>
       <c r="I8" s="3">
-        <v>410972700</v>
+        <v>419393900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -737,27 +772,27 @@
         <v>103998000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>41829300</v>
+        <v>42686400</v>
       </c>
       <c r="E9" s="3">
-        <v>50929100</v>
+        <v>51972700</v>
       </c>
       <c r="F9" s="3">
-        <v>54143300</v>
+        <v>55252700</v>
       </c>
       <c r="G9" s="3">
-        <v>59849200</v>
+        <v>61075600</v>
       </c>
       <c r="H9" s="3">
-        <v>52194500</v>
+        <v>53264100</v>
       </c>
       <c r="I9" s="3">
-        <v>339491600</v>
+        <v>346448200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -766,27 +801,27 @@
         <v>84807200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18348200</v>
+        <v>18724100</v>
       </c>
       <c r="E10" s="3">
-        <v>19174800</v>
+        <v>19567700</v>
       </c>
       <c r="F10" s="3">
-        <v>18059100</v>
+        <v>18429100</v>
       </c>
       <c r="G10" s="3">
-        <v>21900000</v>
+        <v>22348800</v>
       </c>
       <c r="H10" s="3">
-        <v>17356100</v>
+        <v>17711700</v>
       </c>
       <c r="I10" s="3">
-        <v>71481000</v>
+        <v>72945700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -795,7 +830,7 @@
         <v>19190800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,27 +843,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>313000</v>
+        <v>319400</v>
       </c>
       <c r="E12" s="3">
-        <v>428700</v>
+        <v>437500</v>
       </c>
       <c r="F12" s="3">
-        <v>215200</v>
+        <v>219600</v>
       </c>
       <c r="G12" s="3">
-        <v>473500</v>
+        <v>483200</v>
       </c>
       <c r="H12" s="3">
-        <v>403600</v>
+        <v>411800</v>
       </c>
       <c r="I12" s="3">
-        <v>1595200</v>
+        <v>1627900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -837,7 +872,7 @@
         <v>370300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>544500</v>
+        <v>555600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -895,27 +930,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3677100</v>
+        <v>3752400</v>
       </c>
       <c r="E15" s="3">
-        <v>3797800</v>
+        <v>3875600</v>
       </c>
       <c r="F15" s="3">
-        <v>3491000</v>
+        <v>3562600</v>
       </c>
       <c r="G15" s="3">
-        <v>3271600</v>
+        <v>3338600</v>
       </c>
       <c r="H15" s="3">
-        <v>3454400</v>
+        <v>3525200</v>
       </c>
       <c r="I15" s="3">
-        <v>13102800</v>
+        <v>13371300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -924,7 +959,7 @@
         <v>3208600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,27 +969,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58278600</v>
+        <v>59472800</v>
       </c>
       <c r="E17" s="3">
-        <v>69005700</v>
+        <v>70419700</v>
       </c>
       <c r="F17" s="3">
-        <v>70903200</v>
+        <v>72356100</v>
       </c>
       <c r="G17" s="3">
-        <v>76602500</v>
+        <v>78172100</v>
       </c>
       <c r="H17" s="3">
-        <v>68801200</v>
+        <v>70211000</v>
       </c>
       <c r="I17" s="3">
-        <v>400285500</v>
+        <v>408487700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
@@ -963,27 +998,27 @@
         <v>100005800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1898900</v>
+        <v>1937800</v>
       </c>
       <c r="E18" s="3">
-        <v>1098300</v>
+        <v>1120800</v>
       </c>
       <c r="F18" s="3">
-        <v>1299100</v>
+        <v>1325700</v>
       </c>
       <c r="G18" s="3">
-        <v>5146800</v>
+        <v>5252200</v>
       </c>
       <c r="H18" s="3">
-        <v>749400</v>
+        <v>764800</v>
       </c>
       <c r="I18" s="3">
-        <v>10687200</v>
+        <v>10906200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -992,7 +1027,7 @@
         <v>3992200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,27 +1040,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45800</v>
+        <v>-46700</v>
       </c>
       <c r="E20" s="3">
-        <v>346600</v>
+        <v>353700</v>
       </c>
       <c r="F20" s="3">
-        <v>-563300</v>
+        <v>-574800</v>
       </c>
       <c r="G20" s="3">
-        <v>340600</v>
+        <v>347600</v>
       </c>
       <c r="H20" s="3">
-        <v>-233100</v>
+        <v>-237900</v>
       </c>
       <c r="I20" s="3">
-        <v>323900</v>
+        <v>330500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1034,27 +1069,27 @@
         <v>-242900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5530100</v>
+        <v>5643400</v>
       </c>
       <c r="E21" s="3">
-        <v>5242600</v>
+        <v>5350000</v>
       </c>
       <c r="F21" s="3">
-        <v>4226900</v>
+        <v>4313500</v>
       </c>
       <c r="G21" s="3">
-        <v>8759000</v>
+        <v>8938400</v>
       </c>
       <c r="H21" s="3">
-        <v>3970700</v>
+        <v>4052000</v>
       </c>
       <c r="I21" s="3">
-        <v>24113900</v>
+        <v>24608000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1063,7 +1098,7 @@
         <v>6958000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="3">
-        <v>1484800</v>
+        <v>1515300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1092,27 +1127,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1853100</v>
+        <v>1891000</v>
       </c>
       <c r="E23" s="3">
-        <v>1444800</v>
+        <v>1474500</v>
       </c>
       <c r="F23" s="3">
-        <v>735900</v>
+        <v>751000</v>
       </c>
       <c r="G23" s="3">
-        <v>5487400</v>
+        <v>5599800</v>
       </c>
       <c r="H23" s="3">
-        <v>516300</v>
+        <v>526900</v>
       </c>
       <c r="I23" s="3">
-        <v>9526200</v>
+        <v>9721400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>4</v>
@@ -1121,27 +1156,27 @@
         <v>3749300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>462600</v>
+        <v>472100</v>
       </c>
       <c r="E24" s="3">
-        <v>312500</v>
+        <v>318900</v>
       </c>
       <c r="F24" s="3">
-        <v>114900</v>
+        <v>117200</v>
       </c>
       <c r="G24" s="3">
-        <v>1268700</v>
+        <v>1294700</v>
       </c>
       <c r="H24" s="3">
-        <v>138200</v>
+        <v>141000</v>
       </c>
       <c r="I24" s="3">
-        <v>2555400</v>
+        <v>2607700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1150,7 +1185,7 @@
         <v>1031100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,27 +1214,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1390500</v>
+        <v>1418900</v>
       </c>
       <c r="E26" s="3">
-        <v>1132300</v>
+        <v>1155500</v>
       </c>
       <c r="F26" s="3">
-        <v>621000</v>
+        <v>633700</v>
       </c>
       <c r="G26" s="3">
-        <v>4218600</v>
+        <v>4305100</v>
       </c>
       <c r="H26" s="3">
-        <v>378100</v>
+        <v>385900</v>
       </c>
       <c r="I26" s="3">
-        <v>6970900</v>
+        <v>7113700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
@@ -1208,27 +1243,27 @@
         <v>2718200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>969000</v>
+        <v>988900</v>
       </c>
       <c r="E27" s="3">
-        <v>786500</v>
+        <v>802600</v>
       </c>
       <c r="F27" s="3">
-        <v>237900</v>
+        <v>242800</v>
       </c>
       <c r="G27" s="3">
-        <v>3377200</v>
+        <v>3446400</v>
       </c>
       <c r="H27" s="3">
-        <v>315900</v>
+        <v>322300</v>
       </c>
       <c r="I27" s="3">
-        <v>6757600</v>
+        <v>6896000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
@@ -1237,7 +1272,7 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,27 +1388,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45800</v>
+        <v>46700</v>
       </c>
       <c r="E32" s="3">
-        <v>-346600</v>
+        <v>-353700</v>
       </c>
       <c r="F32" s="3">
-        <v>563300</v>
+        <v>574800</v>
       </c>
       <c r="G32" s="3">
-        <v>-340600</v>
+        <v>-347600</v>
       </c>
       <c r="H32" s="3">
-        <v>233100</v>
+        <v>237900</v>
       </c>
       <c r="I32" s="3">
-        <v>-323900</v>
+        <v>-330500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1382,27 +1417,27 @@
         <v>242900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>969000</v>
+        <v>988900</v>
       </c>
       <c r="E33" s="3">
-        <v>786500</v>
+        <v>802600</v>
       </c>
       <c r="F33" s="3">
-        <v>237900</v>
+        <v>242800</v>
       </c>
       <c r="G33" s="3">
-        <v>3377200</v>
+        <v>3446400</v>
       </c>
       <c r="H33" s="3">
-        <v>315900</v>
+        <v>322300</v>
       </c>
       <c r="I33" s="3">
-        <v>6757600</v>
+        <v>6896000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
@@ -1411,7 +1446,7 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,27 +1475,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>969000</v>
+        <v>988900</v>
       </c>
       <c r="E35" s="3">
-        <v>786500</v>
+        <v>802600</v>
       </c>
       <c r="F35" s="3">
-        <v>237900</v>
+        <v>242800</v>
       </c>
       <c r="G35" s="3">
-        <v>3377200</v>
+        <v>3446400</v>
       </c>
       <c r="H35" s="3">
-        <v>315900</v>
+        <v>322300</v>
       </c>
       <c r="I35" s="3">
-        <v>6757600</v>
+        <v>6896000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
@@ -1469,12 +1504,12 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,7 +1551,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,27 +1564,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9184500</v>
+        <v>9372700</v>
       </c>
       <c r="E41" s="3">
-        <v>9863600</v>
+        <v>10065800</v>
       </c>
       <c r="F41" s="3">
-        <v>8218200</v>
+        <v>8386600</v>
       </c>
       <c r="G41" s="3">
-        <v>10547300</v>
+        <v>10763400</v>
       </c>
       <c r="H41" s="3">
-        <v>10486500</v>
+        <v>10701400</v>
       </c>
       <c r="I41" s="3">
-        <v>1360500</v>
+        <v>1388400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1558,27 +1593,27 @@
         <v>1922600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>106900</v>
+        <v>109100</v>
       </c>
       <c r="E42" s="3">
-        <v>106600</v>
+        <v>108800</v>
       </c>
       <c r="F42" s="3">
-        <v>96400</v>
+        <v>98400</v>
       </c>
       <c r="G42" s="3">
-        <v>244000</v>
+        <v>249000</v>
       </c>
       <c r="H42" s="3">
-        <v>267400</v>
+        <v>272900</v>
       </c>
       <c r="I42" s="3">
-        <v>108300</v>
+        <v>110600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -1587,27 +1622,27 @@
         <v>163800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7568800</v>
+        <v>7723900</v>
       </c>
       <c r="E43" s="3">
-        <v>16066400</v>
+        <v>16395600</v>
       </c>
       <c r="F43" s="3">
-        <v>11031000</v>
+        <v>11257000</v>
       </c>
       <c r="G43" s="3">
-        <v>21035700</v>
+        <v>21466800</v>
       </c>
       <c r="H43" s="3">
-        <v>11423700</v>
+        <v>11657800</v>
       </c>
       <c r="I43" s="3">
-        <v>15240200</v>
+        <v>15552500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1616,27 +1651,27 @@
         <v>17038400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20147900</v>
+        <v>20560700</v>
       </c>
       <c r="E44" s="3">
-        <v>21159800</v>
+        <v>21593400</v>
       </c>
       <c r="F44" s="3">
-        <v>22553900</v>
+        <v>23016000</v>
       </c>
       <c r="G44" s="3">
-        <v>25425400</v>
+        <v>25946400</v>
       </c>
       <c r="H44" s="3">
-        <v>23317100</v>
+        <v>23794900</v>
       </c>
       <c r="I44" s="3">
-        <v>27373300</v>
+        <v>27934200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -1645,27 +1680,27 @@
         <v>35524900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7718800</v>
+        <v>7877000</v>
       </c>
       <c r="E45" s="3">
-        <v>1145300</v>
+        <v>1168700</v>
       </c>
       <c r="F45" s="3">
-        <v>7140300</v>
+        <v>7286600</v>
       </c>
       <c r="G45" s="3">
-        <v>273100</v>
+        <v>278700</v>
       </c>
       <c r="H45" s="3">
-        <v>6479600</v>
+        <v>6612400</v>
       </c>
       <c r="I45" s="3">
-        <v>8293400</v>
+        <v>8463400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1674,27 +1709,27 @@
         <v>6536800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44726900</v>
+        <v>45643300</v>
       </c>
       <c r="E46" s="3">
-        <v>48341700</v>
+        <v>49332200</v>
       </c>
       <c r="F46" s="3">
-        <v>49039900</v>
+        <v>50044700</v>
       </c>
       <c r="G46" s="3">
-        <v>57525600</v>
+        <v>58704300</v>
       </c>
       <c r="H46" s="3">
-        <v>51974400</v>
+        <v>53039400</v>
       </c>
       <c r="I46" s="3">
-        <v>52375700</v>
+        <v>53449000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -1703,27 +1738,27 @@
         <v>61186500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16978400</v>
+        <v>17326300</v>
       </c>
       <c r="E47" s="3">
-        <v>17127100</v>
+        <v>17478100</v>
       </c>
       <c r="F47" s="3">
-        <v>14998800</v>
+        <v>15306100</v>
       </c>
       <c r="G47" s="3">
-        <v>12495200</v>
+        <v>12751200</v>
       </c>
       <c r="H47" s="3">
-        <v>12171200</v>
+        <v>12420600</v>
       </c>
       <c r="I47" s="3">
-        <v>11846900</v>
+        <v>12089600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1732,27 +1767,27 @@
         <v>12636600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>125476600</v>
+        <v>128047700</v>
       </c>
       <c r="E48" s="3">
-        <v>128684200</v>
+        <v>131321000</v>
       </c>
       <c r="F48" s="3">
-        <v>123767800</v>
+        <v>126303900</v>
       </c>
       <c r="G48" s="3">
-        <v>125185700</v>
+        <v>127750900</v>
       </c>
       <c r="H48" s="3">
-        <v>125943500</v>
+        <v>128524200</v>
       </c>
       <c r="I48" s="3">
-        <v>128145900</v>
+        <v>130771800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1761,27 +1796,27 @@
         <v>118388600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>916200</v>
+        <v>935000</v>
       </c>
       <c r="E49" s="3">
-        <v>912000</v>
+        <v>930700</v>
       </c>
       <c r="F49" s="3">
-        <v>913400</v>
+        <v>932200</v>
       </c>
       <c r="G49" s="3">
-        <v>913400</v>
+        <v>932200</v>
       </c>
       <c r="H49" s="3">
-        <v>913400</v>
+        <v>932200</v>
       </c>
       <c r="I49" s="3">
-        <v>913400</v>
+        <v>932200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -1790,7 +1825,7 @@
         <v>7756800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,27 +1883,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15167800</v>
+        <v>15478600</v>
       </c>
       <c r="E52" s="3">
-        <v>14809300</v>
+        <v>15112700</v>
       </c>
       <c r="F52" s="3">
-        <v>15524100</v>
+        <v>15842200</v>
       </c>
       <c r="G52" s="3">
-        <v>17713800</v>
+        <v>18076800</v>
       </c>
       <c r="H52" s="3">
-        <v>17842400</v>
+        <v>18208000</v>
       </c>
       <c r="I52" s="3">
-        <v>17790500</v>
+        <v>18155000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -1877,7 +1912,7 @@
         <v>7930000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,36 +1941,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>203265800</v>
+        <v>207430900</v>
       </c>
       <c r="E54" s="3">
-        <v>209874300</v>
+        <v>214174800</v>
       </c>
       <c r="F54" s="3">
-        <v>204243900</v>
+        <v>208429100</v>
       </c>
       <c r="G54" s="3">
-        <v>213833700</v>
+        <v>218215400</v>
       </c>
       <c r="H54" s="3">
-        <v>208844900</v>
+        <v>213124300</v>
       </c>
       <c r="I54" s="3">
-        <v>211072400</v>
+        <v>215397500</v>
       </c>
       <c r="J54" s="3">
-        <v>209068700</v>
+        <v>213352700</v>
       </c>
       <c r="K54" s="3">
         <v>207898400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,7 +1983,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,27 +1996,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43825800</v>
+        <v>44723800</v>
       </c>
       <c r="E57" s="3">
-        <v>28037400</v>
+        <v>28612000</v>
       </c>
       <c r="F57" s="3">
-        <v>45351300</v>
+        <v>46280600</v>
       </c>
       <c r="G57" s="3">
-        <v>24414600</v>
+        <v>24914900</v>
       </c>
       <c r="H57" s="3">
-        <v>44963900</v>
+        <v>45885300</v>
       </c>
       <c r="I57" s="3">
-        <v>61810400</v>
+        <v>63076900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -1990,27 +2025,27 @@
         <v>58174200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15585600</v>
+        <v>15905000</v>
       </c>
       <c r="E58" s="3">
-        <v>16789300</v>
+        <v>17133300</v>
       </c>
       <c r="F58" s="3">
-        <v>18909000</v>
+        <v>19296400</v>
       </c>
       <c r="G58" s="3">
-        <v>22494500</v>
+        <v>22955500</v>
       </c>
       <c r="H58" s="3">
-        <v>25063700</v>
+        <v>25577300</v>
       </c>
       <c r="I58" s="3">
-        <v>25908100</v>
+        <v>26438900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2019,27 +2054,27 @@
         <v>29061100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="E59" s="3">
-        <v>22455300</v>
+        <v>22915400</v>
       </c>
       <c r="F59" s="3">
-        <v>118500</v>
+        <v>121000</v>
       </c>
       <c r="G59" s="3">
-        <v>26811200</v>
+        <v>27360600</v>
       </c>
       <c r="H59" s="3">
-        <v>163300</v>
+        <v>166700</v>
       </c>
       <c r="I59" s="3">
-        <v>158700</v>
+        <v>161900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2048,27 +2083,27 @@
         <v>742700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59428800</v>
+        <v>60646600</v>
       </c>
       <c r="E60" s="3">
-        <v>67282000</v>
+        <v>68660700</v>
       </c>
       <c r="F60" s="3">
-        <v>64378800</v>
+        <v>65698000</v>
       </c>
       <c r="G60" s="3">
-        <v>73720400</v>
+        <v>75231000</v>
       </c>
       <c r="H60" s="3">
-        <v>70190900</v>
+        <v>71629200</v>
       </c>
       <c r="I60" s="3">
-        <v>87877100</v>
+        <v>89677800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2077,27 +2112,27 @@
         <v>87978000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20021100</v>
+        <v>20431300</v>
       </c>
       <c r="E61" s="3">
-        <v>20323300</v>
+        <v>20739700</v>
       </c>
       <c r="F61" s="3">
-        <v>17525000</v>
+        <v>17884100</v>
       </c>
       <c r="G61" s="3">
-        <v>17660600</v>
+        <v>18022500</v>
       </c>
       <c r="H61" s="3">
-        <v>18880200</v>
+        <v>19267000</v>
       </c>
       <c r="I61" s="3">
-        <v>21950000</v>
+        <v>22399800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2106,27 +2141,27 @@
         <v>19694400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8181900</v>
+        <v>8349500</v>
       </c>
       <c r="E62" s="3">
-        <v>8220000</v>
+        <v>8388400</v>
       </c>
       <c r="F62" s="3">
-        <v>8310200</v>
+        <v>8480400</v>
       </c>
       <c r="G62" s="3">
-        <v>8005600</v>
+        <v>8169700</v>
       </c>
       <c r="H62" s="3">
-        <v>7420000</v>
+        <v>7572000</v>
       </c>
       <c r="I62" s="3">
-        <v>7359000</v>
+        <v>7509800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2135,7 +2170,7 @@
         <v>6926400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,27 +2257,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103650300</v>
+        <v>105774200</v>
       </c>
       <c r="E66" s="3">
-        <v>111850200</v>
+        <v>114142100</v>
       </c>
       <c r="F66" s="3">
-        <v>106205200</v>
+        <v>108381400</v>
       </c>
       <c r="G66" s="3">
-        <v>114929000</v>
+        <v>117284000</v>
       </c>
       <c r="H66" s="3">
-        <v>111392700</v>
+        <v>113675200</v>
       </c>
       <c r="I66" s="3">
-        <v>124826500</v>
+        <v>127384300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2251,7 +2286,7 @@
         <v>122660500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,7 +2299,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2388,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="E72" s="3">
-        <v>73280600</v>
+        <v>74782200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>73678000</v>
+        <v>75187800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -2409,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,36 +2531,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>99615500</v>
+        <v>101656700</v>
       </c>
       <c r="E76" s="3">
-        <v>98024000</v>
+        <v>100032600</v>
       </c>
       <c r="F76" s="3">
-        <v>98038700</v>
+        <v>100047600</v>
       </c>
       <c r="G76" s="3">
-        <v>98904800</v>
+        <v>100931400</v>
       </c>
       <c r="H76" s="3">
-        <v>97452200</v>
+        <v>99449100</v>
       </c>
       <c r="I76" s="3">
-        <v>86246000</v>
+        <v>88013200</v>
       </c>
       <c r="J76" s="3">
-        <v>86146500</v>
+        <v>87911700</v>
       </c>
       <c r="K76" s="3">
         <v>85238000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,12 +2589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2588,27 +2623,27 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>969000</v>
+        <v>988900</v>
       </c>
       <c r="E81" s="3">
-        <v>786500</v>
+        <v>802600</v>
       </c>
       <c r="F81" s="3">
-        <v>237900</v>
+        <v>242800</v>
       </c>
       <c r="G81" s="3">
-        <v>3377200</v>
+        <v>3446400</v>
       </c>
       <c r="H81" s="3">
-        <v>315900</v>
+        <v>322300</v>
       </c>
       <c r="I81" s="3">
-        <v>6757600</v>
+        <v>6896000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
@@ -2617,7 +2652,7 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,27 +2665,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3677100</v>
+        <v>3752400</v>
       </c>
       <c r="E83" s="3">
-        <v>3797800</v>
+        <v>3875600</v>
       </c>
       <c r="F83" s="3">
-        <v>3491000</v>
+        <v>3562600</v>
       </c>
       <c r="G83" s="3">
-        <v>3271600</v>
+        <v>3338600</v>
       </c>
       <c r="H83" s="3">
-        <v>3454400</v>
+        <v>3525200</v>
       </c>
       <c r="I83" s="3">
-        <v>13102800</v>
+        <v>13371300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -2659,7 +2694,7 @@
         <v>3208600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,36 +2839,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4995200</v>
+        <v>5097600</v>
       </c>
       <c r="E89" s="3">
-        <v>7158800</v>
+        <v>7305500</v>
       </c>
       <c r="F89" s="3">
-        <v>7148000</v>
+        <v>7294500</v>
       </c>
       <c r="G89" s="3">
-        <v>8836300</v>
+        <v>9017400</v>
       </c>
       <c r="H89" s="3">
-        <v>971800</v>
+        <v>991700</v>
       </c>
       <c r="I89" s="3">
-        <v>21574100</v>
+        <v>22016200</v>
       </c>
       <c r="J89" s="3">
-        <v>15742400</v>
+        <v>16064900</v>
       </c>
       <c r="K89" s="3">
         <v>6630600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,27 +2881,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2757500</v>
+        <v>-219500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4551100</v>
+        <v>-539500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2683500</v>
+        <v>-136800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2835000</v>
+        <v>-148600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4859800</v>
+        <v>-244100</v>
       </c>
       <c r="I91" s="3">
-        <v>-18088700</v>
+        <v>-1682100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -2875,7 +2910,7 @@
         <v>-3578000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,27 +2968,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3612900</v>
+        <v>-3686900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6216100</v>
+        <v>-6343500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2796200</v>
+        <v>-2853500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2665300</v>
+        <v>-2719900</v>
       </c>
       <c r="H94" s="3">
-        <v>-5330700</v>
+        <v>-5440000</v>
       </c>
       <c r="I94" s="3">
-        <v>-19288800</v>
+        <v>-19684100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -2962,7 +2997,7 @@
         <v>-3414800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,7 +3010,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2986,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1584600</v>
+        <v>-1617100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2995,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-4076500</v>
+        <v>-4160100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3004,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,27 +3126,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2048700</v>
+        <v>-2090700</v>
       </c>
       <c r="E100" s="3">
-        <v>661100</v>
+        <v>674700</v>
       </c>
       <c r="F100" s="3">
-        <v>-6729800</v>
+        <v>-6867700</v>
       </c>
       <c r="G100" s="3">
-        <v>-6101800</v>
+        <v>-6226800</v>
       </c>
       <c r="H100" s="3">
-        <v>13524400</v>
+        <v>13801500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3115300</v>
+        <v>-3179100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -3120,27 +3155,27 @@
         <v>-4061600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12800</v>
+        <v>-13100</v>
       </c>
       <c r="E101" s="3">
-        <v>41600</v>
+        <v>42400</v>
       </c>
       <c r="F101" s="3">
-        <v>48900</v>
+        <v>49900</v>
       </c>
       <c r="G101" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="H101" s="3">
-        <v>-39400</v>
+        <v>-40200</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -3149,27 +3184,27 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-679200</v>
+        <v>-693100</v>
       </c>
       <c r="E102" s="3">
-        <v>1645400</v>
+        <v>1679100</v>
       </c>
       <c r="F102" s="3">
-        <v>-2329100</v>
+        <v>-2376800</v>
       </c>
       <c r="G102" s="3">
-        <v>60800</v>
+        <v>62000</v>
       </c>
       <c r="H102" s="3">
-        <v>9126000</v>
+        <v>9313000</v>
       </c>
       <c r="I102" s="3">
-        <v>-827600</v>
+        <v>-844600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>

--- a/Financials/Quarterly/SNP_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SNP_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E89DF4-0D29-44F2-ABE4-1E59BFC499B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -743,27 +708,27 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61410600</v>
+        <v>59370600</v>
       </c>
       <c r="E8" s="3">
-        <v>71540400</v>
+        <v>69164000</v>
       </c>
       <c r="F8" s="3">
-        <v>73681900</v>
+        <v>71234200</v>
       </c>
       <c r="G8" s="3">
-        <v>83424400</v>
+        <v>80653100</v>
       </c>
       <c r="H8" s="3">
-        <v>70975700</v>
+        <v>68618000</v>
       </c>
       <c r="I8" s="3">
-        <v>419393900</v>
+        <v>405462100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -772,27 +737,27 @@
         <v>103998000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>42686400</v>
+        <v>41268400</v>
       </c>
       <c r="E9" s="3">
-        <v>51972700</v>
+        <v>50246300</v>
       </c>
       <c r="F9" s="3">
-        <v>55252700</v>
+        <v>53417300</v>
       </c>
       <c r="G9" s="3">
-        <v>61075600</v>
+        <v>59046800</v>
       </c>
       <c r="H9" s="3">
-        <v>53264100</v>
+        <v>51494700</v>
       </c>
       <c r="I9" s="3">
-        <v>346448200</v>
+        <v>334939600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -801,27 +766,27 @@
         <v>84807200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18724100</v>
+        <v>18102200</v>
       </c>
       <c r="E10" s="3">
-        <v>19567700</v>
+        <v>18917700</v>
       </c>
       <c r="F10" s="3">
-        <v>18429100</v>
+        <v>17816900</v>
       </c>
       <c r="G10" s="3">
-        <v>22348800</v>
+        <v>21606400</v>
       </c>
       <c r="H10" s="3">
-        <v>17711700</v>
+        <v>17123300</v>
       </c>
       <c r="I10" s="3">
-        <v>72945700</v>
+        <v>70522600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -830,7 +795,7 @@
         <v>19190800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,27 +808,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>319400</v>
+        <v>308800</v>
       </c>
       <c r="E12" s="3">
-        <v>437500</v>
+        <v>423000</v>
       </c>
       <c r="F12" s="3">
-        <v>219600</v>
+        <v>212400</v>
       </c>
       <c r="G12" s="3">
-        <v>483200</v>
+        <v>467200</v>
       </c>
       <c r="H12" s="3">
-        <v>411800</v>
+        <v>398200</v>
       </c>
       <c r="I12" s="3">
-        <v>1627900</v>
+        <v>1573800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -872,7 +837,7 @@
         <v>370300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>555600</v>
+        <v>537200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -930,27 +895,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3752400</v>
+        <v>3627700</v>
       </c>
       <c r="E15" s="3">
-        <v>3875600</v>
+        <v>3746800</v>
       </c>
       <c r="F15" s="3">
-        <v>3562600</v>
+        <v>3444200</v>
       </c>
       <c r="G15" s="3">
-        <v>3338600</v>
+        <v>3227700</v>
       </c>
       <c r="H15" s="3">
-        <v>3525200</v>
+        <v>3408100</v>
       </c>
       <c r="I15" s="3">
-        <v>13371300</v>
+        <v>12927100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -959,7 +924,7 @@
         <v>3208600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,27 +934,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59472800</v>
+        <v>57497200</v>
       </c>
       <c r="E17" s="3">
-        <v>70419700</v>
+        <v>68080400</v>
       </c>
       <c r="F17" s="3">
-        <v>72356100</v>
+        <v>69952500</v>
       </c>
       <c r="G17" s="3">
-        <v>78172100</v>
+        <v>75575400</v>
       </c>
       <c r="H17" s="3">
-        <v>70211000</v>
+        <v>67878700</v>
       </c>
       <c r="I17" s="3">
-        <v>408487700</v>
+        <v>394918200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
@@ -998,27 +963,27 @@
         <v>100005800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1937800</v>
+        <v>1873400</v>
       </c>
       <c r="E18" s="3">
-        <v>1120800</v>
+        <v>1083600</v>
       </c>
       <c r="F18" s="3">
-        <v>1325700</v>
+        <v>1281700</v>
       </c>
       <c r="G18" s="3">
-        <v>5252200</v>
+        <v>5077800</v>
       </c>
       <c r="H18" s="3">
-        <v>764800</v>
+        <v>739400</v>
       </c>
       <c r="I18" s="3">
-        <v>10906200</v>
+        <v>10543900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1027,7 +992,7 @@
         <v>3992200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,27 +1005,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-46700</v>
+        <v>-45200</v>
       </c>
       <c r="E20" s="3">
-        <v>353700</v>
+        <v>341900</v>
       </c>
       <c r="F20" s="3">
-        <v>-574800</v>
+        <v>-555700</v>
       </c>
       <c r="G20" s="3">
-        <v>347600</v>
+        <v>336000</v>
       </c>
       <c r="H20" s="3">
-        <v>-237900</v>
+        <v>-230000</v>
       </c>
       <c r="I20" s="3">
-        <v>330500</v>
+        <v>319500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1069,27 +1034,27 @@
         <v>-242900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5643400</v>
+        <v>5456000</v>
       </c>
       <c r="E21" s="3">
-        <v>5350000</v>
+        <v>5172300</v>
       </c>
       <c r="F21" s="3">
-        <v>4313500</v>
+        <v>4170200</v>
       </c>
       <c r="G21" s="3">
-        <v>8938400</v>
+        <v>8641500</v>
       </c>
       <c r="H21" s="3">
-        <v>4052000</v>
+        <v>3917400</v>
       </c>
       <c r="I21" s="3">
-        <v>24608000</v>
+        <v>23790600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1098,7 +1063,7 @@
         <v>6958000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="3">
-        <v>1515300</v>
+        <v>1464900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1127,27 +1092,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1891000</v>
+        <v>1828200</v>
       </c>
       <c r="E23" s="3">
-        <v>1474500</v>
+        <v>1425500</v>
       </c>
       <c r="F23" s="3">
-        <v>751000</v>
+        <v>726000</v>
       </c>
       <c r="G23" s="3">
-        <v>5599800</v>
+        <v>5413800</v>
       </c>
       <c r="H23" s="3">
-        <v>526900</v>
+        <v>509400</v>
       </c>
       <c r="I23" s="3">
-        <v>9721400</v>
+        <v>9398500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>4</v>
@@ -1156,27 +1121,27 @@
         <v>3749300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>472100</v>
+        <v>456400</v>
       </c>
       <c r="E24" s="3">
-        <v>318900</v>
+        <v>308300</v>
       </c>
       <c r="F24" s="3">
-        <v>117200</v>
+        <v>113300</v>
       </c>
       <c r="G24" s="3">
-        <v>1294700</v>
+        <v>1251700</v>
       </c>
       <c r="H24" s="3">
-        <v>141000</v>
+        <v>136300</v>
       </c>
       <c r="I24" s="3">
-        <v>2607700</v>
+        <v>2521100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1185,7 +1150,7 @@
         <v>1031100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1214,27 +1179,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1418900</v>
+        <v>1371800</v>
       </c>
       <c r="E26" s="3">
-        <v>1155500</v>
+        <v>1117100</v>
       </c>
       <c r="F26" s="3">
-        <v>633700</v>
+        <v>612700</v>
       </c>
       <c r="G26" s="3">
-        <v>4305100</v>
+        <v>4162100</v>
       </c>
       <c r="H26" s="3">
-        <v>385900</v>
+        <v>373000</v>
       </c>
       <c r="I26" s="3">
-        <v>7113700</v>
+        <v>6877400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
@@ -1243,27 +1208,27 @@
         <v>2718200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>988900</v>
+        <v>956000</v>
       </c>
       <c r="E27" s="3">
-        <v>802600</v>
+        <v>775900</v>
       </c>
       <c r="F27" s="3">
-        <v>242800</v>
+        <v>234700</v>
       </c>
       <c r="G27" s="3">
-        <v>3446400</v>
+        <v>3331900</v>
       </c>
       <c r="H27" s="3">
-        <v>322300</v>
+        <v>311600</v>
       </c>
       <c r="I27" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
@@ -1272,7 +1237,7 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1330,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1388,27 +1353,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="E32" s="3">
-        <v>-353700</v>
+        <v>-341900</v>
       </c>
       <c r="F32" s="3">
-        <v>574800</v>
+        <v>555700</v>
       </c>
       <c r="G32" s="3">
-        <v>-347600</v>
+        <v>-336000</v>
       </c>
       <c r="H32" s="3">
-        <v>237900</v>
+        <v>230000</v>
       </c>
       <c r="I32" s="3">
-        <v>-330500</v>
+        <v>-319500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1417,27 +1382,27 @@
         <v>242900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>988900</v>
+        <v>956000</v>
       </c>
       <c r="E33" s="3">
-        <v>802600</v>
+        <v>775900</v>
       </c>
       <c r="F33" s="3">
-        <v>242800</v>
+        <v>234700</v>
       </c>
       <c r="G33" s="3">
-        <v>3446400</v>
+        <v>3331900</v>
       </c>
       <c r="H33" s="3">
-        <v>322300</v>
+        <v>311600</v>
       </c>
       <c r="I33" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
@@ -1446,7 +1411,7 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1475,27 +1440,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>988900</v>
+        <v>956000</v>
       </c>
       <c r="E35" s="3">
-        <v>802600</v>
+        <v>775900</v>
       </c>
       <c r="F35" s="3">
-        <v>242800</v>
+        <v>234700</v>
       </c>
       <c r="G35" s="3">
-        <v>3446400</v>
+        <v>3331900</v>
       </c>
       <c r="H35" s="3">
-        <v>322300</v>
+        <v>311600</v>
       </c>
       <c r="I35" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
@@ -1504,12 +1469,12 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1503,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1551,7 +1516,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1564,27 +1529,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9372700</v>
+        <v>9061300</v>
       </c>
       <c r="E41" s="3">
-        <v>10065800</v>
+        <v>9731400</v>
       </c>
       <c r="F41" s="3">
-        <v>8386600</v>
+        <v>8108100</v>
       </c>
       <c r="G41" s="3">
-        <v>10763400</v>
+        <v>10405900</v>
       </c>
       <c r="H41" s="3">
-        <v>10701400</v>
+        <v>10345900</v>
       </c>
       <c r="I41" s="3">
-        <v>1388400</v>
+        <v>1342300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1593,27 +1558,27 @@
         <v>1922600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>109100</v>
+        <v>105500</v>
       </c>
       <c r="E42" s="3">
-        <v>108800</v>
+        <v>105200</v>
       </c>
       <c r="F42" s="3">
-        <v>98400</v>
+        <v>95100</v>
       </c>
       <c r="G42" s="3">
-        <v>249000</v>
+        <v>240800</v>
       </c>
       <c r="H42" s="3">
-        <v>272900</v>
+        <v>263900</v>
       </c>
       <c r="I42" s="3">
-        <v>110600</v>
+        <v>106900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -1622,27 +1587,27 @@
         <v>163800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7723900</v>
+        <v>7467300</v>
       </c>
       <c r="E43" s="3">
-        <v>16395600</v>
+        <v>15851000</v>
       </c>
       <c r="F43" s="3">
-        <v>11257000</v>
+        <v>10883100</v>
       </c>
       <c r="G43" s="3">
-        <v>21466800</v>
+        <v>20753700</v>
       </c>
       <c r="H43" s="3">
-        <v>11657800</v>
+        <v>11270500</v>
       </c>
       <c r="I43" s="3">
-        <v>15552500</v>
+        <v>15035800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1651,27 +1616,27 @@
         <v>17038400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20560700</v>
+        <v>19877700</v>
       </c>
       <c r="E44" s="3">
-        <v>21593400</v>
+        <v>20876100</v>
       </c>
       <c r="F44" s="3">
-        <v>23016000</v>
+        <v>22251500</v>
       </c>
       <c r="G44" s="3">
-        <v>25946400</v>
+        <v>25084500</v>
       </c>
       <c r="H44" s="3">
-        <v>23794900</v>
+        <v>23004400</v>
       </c>
       <c r="I44" s="3">
-        <v>27934200</v>
+        <v>27006200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -1680,27 +1645,27 @@
         <v>35524900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7877000</v>
+        <v>7615300</v>
       </c>
       <c r="E45" s="3">
-        <v>1168700</v>
+        <v>1129900</v>
       </c>
       <c r="F45" s="3">
-        <v>7286600</v>
+        <v>7044600</v>
       </c>
       <c r="G45" s="3">
-        <v>278700</v>
+        <v>269500</v>
       </c>
       <c r="H45" s="3">
-        <v>6612400</v>
+        <v>6392800</v>
       </c>
       <c r="I45" s="3">
-        <v>8463400</v>
+        <v>8182200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1709,27 +1674,27 @@
         <v>6536800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45643300</v>
+        <v>44127100</v>
       </c>
       <c r="E46" s="3">
-        <v>49332200</v>
+        <v>47693500</v>
       </c>
       <c r="F46" s="3">
-        <v>50044700</v>
+        <v>48382300</v>
       </c>
       <c r="G46" s="3">
-        <v>58704300</v>
+        <v>56754200</v>
       </c>
       <c r="H46" s="3">
-        <v>53039400</v>
+        <v>51277500</v>
       </c>
       <c r="I46" s="3">
-        <v>53449000</v>
+        <v>51673500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -1738,27 +1703,27 @@
         <v>61186500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17326300</v>
+        <v>16750700</v>
       </c>
       <c r="E47" s="3">
-        <v>17478100</v>
+        <v>16897500</v>
       </c>
       <c r="F47" s="3">
-        <v>15306100</v>
+        <v>14797700</v>
       </c>
       <c r="G47" s="3">
-        <v>12751200</v>
+        <v>12327700</v>
       </c>
       <c r="H47" s="3">
-        <v>12420600</v>
+        <v>12008000</v>
       </c>
       <c r="I47" s="3">
-        <v>12089600</v>
+        <v>11688000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1767,27 +1732,27 @@
         <v>12636600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128047700</v>
+        <v>123794100</v>
       </c>
       <c r="E48" s="3">
-        <v>131321000</v>
+        <v>126958700</v>
       </c>
       <c r="F48" s="3">
-        <v>126303900</v>
+        <v>122108200</v>
       </c>
       <c r="G48" s="3">
-        <v>127750900</v>
+        <v>123507200</v>
       </c>
       <c r="H48" s="3">
-        <v>128524200</v>
+        <v>124254800</v>
       </c>
       <c r="I48" s="3">
-        <v>130771800</v>
+        <v>126427700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1796,27 +1761,27 @@
         <v>118388600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>935000</v>
+        <v>903900</v>
       </c>
       <c r="E49" s="3">
-        <v>930700</v>
+        <v>899800</v>
       </c>
       <c r="F49" s="3">
-        <v>932200</v>
+        <v>901200</v>
       </c>
       <c r="G49" s="3">
-        <v>932200</v>
+        <v>901200</v>
       </c>
       <c r="H49" s="3">
-        <v>932200</v>
+        <v>901200</v>
       </c>
       <c r="I49" s="3">
-        <v>932200</v>
+        <v>901200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -1825,7 +1790,7 @@
         <v>7756800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1854,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1883,27 +1848,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15478600</v>
+        <v>14964400</v>
       </c>
       <c r="E52" s="3">
-        <v>15112700</v>
+        <v>14610700</v>
       </c>
       <c r="F52" s="3">
-        <v>15842200</v>
+        <v>15315900</v>
       </c>
       <c r="G52" s="3">
-        <v>18076800</v>
+        <v>17476300</v>
       </c>
       <c r="H52" s="3">
-        <v>18208000</v>
+        <v>17603100</v>
       </c>
       <c r="I52" s="3">
-        <v>18155000</v>
+        <v>17551900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -1912,7 +1877,7 @@
         <v>7930000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1941,36 +1906,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>207430900</v>
+        <v>200540300</v>
       </c>
       <c r="E54" s="3">
-        <v>214174800</v>
+        <v>207060100</v>
       </c>
       <c r="F54" s="3">
-        <v>208429100</v>
+        <v>201505300</v>
       </c>
       <c r="G54" s="3">
-        <v>218215400</v>
+        <v>210966500</v>
       </c>
       <c r="H54" s="3">
-        <v>213124300</v>
+        <v>206044600</v>
       </c>
       <c r="I54" s="3">
-        <v>215397500</v>
+        <v>208242300</v>
       </c>
       <c r="J54" s="3">
-        <v>213352700</v>
+        <v>206265400</v>
       </c>
       <c r="K54" s="3">
         <v>207898400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1983,7 +1948,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1996,27 +1961,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44723800</v>
+        <v>43238100</v>
       </c>
       <c r="E57" s="3">
-        <v>28612000</v>
+        <v>27661500</v>
       </c>
       <c r="F57" s="3">
-        <v>46280600</v>
+        <v>44743200</v>
       </c>
       <c r="G57" s="3">
-        <v>24914900</v>
+        <v>24087300</v>
       </c>
       <c r="H57" s="3">
-        <v>45885300</v>
+        <v>44361000</v>
       </c>
       <c r="I57" s="3">
-        <v>63076900</v>
+        <v>60981600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2025,27 +1990,27 @@
         <v>58174200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15905000</v>
+        <v>15376600</v>
       </c>
       <c r="E58" s="3">
-        <v>17133300</v>
+        <v>16564200</v>
       </c>
       <c r="F58" s="3">
-        <v>19296400</v>
+        <v>18655400</v>
       </c>
       <c r="G58" s="3">
-        <v>22955500</v>
+        <v>22192900</v>
       </c>
       <c r="H58" s="3">
-        <v>25577300</v>
+        <v>24727600</v>
       </c>
       <c r="I58" s="3">
-        <v>26438900</v>
+        <v>25560700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2054,27 +2019,27 @@
         <v>29061100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="E59" s="3">
-        <v>22915400</v>
+        <v>22154200</v>
       </c>
       <c r="F59" s="3">
-        <v>121000</v>
+        <v>116900</v>
       </c>
       <c r="G59" s="3">
-        <v>27360600</v>
+        <v>26451700</v>
       </c>
       <c r="H59" s="3">
-        <v>166700</v>
+        <v>161100</v>
       </c>
       <c r="I59" s="3">
-        <v>161900</v>
+        <v>156500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2083,27 +2048,27 @@
         <v>742700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>60646600</v>
+        <v>58632000</v>
       </c>
       <c r="E60" s="3">
-        <v>68660700</v>
+        <v>66379900</v>
       </c>
       <c r="F60" s="3">
-        <v>65698000</v>
+        <v>63515600</v>
       </c>
       <c r="G60" s="3">
-        <v>75231000</v>
+        <v>72731900</v>
       </c>
       <c r="H60" s="3">
-        <v>71629200</v>
+        <v>69249800</v>
       </c>
       <c r="I60" s="3">
-        <v>89677800</v>
+        <v>86698800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2112,27 +2077,27 @@
         <v>87978000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20431300</v>
+        <v>19752600</v>
       </c>
       <c r="E61" s="3">
-        <v>20739700</v>
+        <v>20050800</v>
       </c>
       <c r="F61" s="3">
-        <v>17884100</v>
+        <v>17290100</v>
       </c>
       <c r="G61" s="3">
-        <v>18022500</v>
+        <v>17423800</v>
       </c>
       <c r="H61" s="3">
-        <v>19267000</v>
+        <v>18627000</v>
       </c>
       <c r="I61" s="3">
-        <v>22399800</v>
+        <v>21655700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2141,27 +2106,27 @@
         <v>19694400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8349500</v>
+        <v>8072200</v>
       </c>
       <c r="E62" s="3">
-        <v>8388400</v>
+        <v>8109800</v>
       </c>
       <c r="F62" s="3">
-        <v>8480400</v>
+        <v>8198700</v>
       </c>
       <c r="G62" s="3">
-        <v>8169700</v>
+        <v>7898300</v>
       </c>
       <c r="H62" s="3">
-        <v>7572000</v>
+        <v>7320500</v>
       </c>
       <c r="I62" s="3">
-        <v>7509800</v>
+        <v>7260400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2170,7 +2135,7 @@
         <v>6926400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2199,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2228,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2257,27 +2222,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105774200</v>
+        <v>102260500</v>
       </c>
       <c r="E66" s="3">
-        <v>114142100</v>
+        <v>110350500</v>
       </c>
       <c r="F66" s="3">
-        <v>108381400</v>
+        <v>104781100</v>
       </c>
       <c r="G66" s="3">
-        <v>117284000</v>
+        <v>113387900</v>
       </c>
       <c r="H66" s="3">
-        <v>113675200</v>
+        <v>109899100</v>
       </c>
       <c r="I66" s="3">
-        <v>127384300</v>
+        <v>123152800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2286,7 +2251,7 @@
         <v>122660500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2299,7 +2264,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2328,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2357,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2386,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2415,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2423,13 +2388,13 @@
         <v>4</v>
       </c>
       <c r="E72" s="3">
-        <v>74782200</v>
+        <v>72298000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>75187800</v>
+        <v>72690100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -2444,7 +2409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2473,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2502,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2531,36 +2496,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101656700</v>
+        <v>98279800</v>
       </c>
       <c r="E76" s="3">
-        <v>100032600</v>
+        <v>96709700</v>
       </c>
       <c r="F76" s="3">
-        <v>100047600</v>
+        <v>96724200</v>
       </c>
       <c r="G76" s="3">
-        <v>100931400</v>
+        <v>97578600</v>
       </c>
       <c r="H76" s="3">
-        <v>99449100</v>
+        <v>96145500</v>
       </c>
       <c r="I76" s="3">
-        <v>88013200</v>
+        <v>85089500</v>
       </c>
       <c r="J76" s="3">
-        <v>87911700</v>
+        <v>84991400</v>
       </c>
       <c r="K76" s="3">
         <v>85238000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2589,12 +2554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2623,27 +2588,27 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>988900</v>
+        <v>956000</v>
       </c>
       <c r="E81" s="3">
-        <v>802600</v>
+        <v>775900</v>
       </c>
       <c r="F81" s="3">
-        <v>242800</v>
+        <v>234700</v>
       </c>
       <c r="G81" s="3">
-        <v>3446400</v>
+        <v>3331900</v>
       </c>
       <c r="H81" s="3">
-        <v>322300</v>
+        <v>311600</v>
       </c>
       <c r="I81" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
@@ -2652,7 +2617,7 @@
         <v>2679100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2665,27 +2630,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3752400</v>
+        <v>3627700</v>
       </c>
       <c r="E83" s="3">
-        <v>3875600</v>
+        <v>3746800</v>
       </c>
       <c r="F83" s="3">
-        <v>3562600</v>
+        <v>3444200</v>
       </c>
       <c r="G83" s="3">
-        <v>3338600</v>
+        <v>3227700</v>
       </c>
       <c r="H83" s="3">
-        <v>3525200</v>
+        <v>3408100</v>
       </c>
       <c r="I83" s="3">
-        <v>13371300</v>
+        <v>12927100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -2694,7 +2659,7 @@
         <v>3208600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2723,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2752,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2781,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2810,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2839,36 +2804,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5097600</v>
+        <v>4928300</v>
       </c>
       <c r="E89" s="3">
-        <v>7305500</v>
+        <v>7062800</v>
       </c>
       <c r="F89" s="3">
-        <v>7294500</v>
+        <v>7052200</v>
       </c>
       <c r="G89" s="3">
-        <v>9017400</v>
+        <v>8717800</v>
       </c>
       <c r="H89" s="3">
-        <v>991700</v>
+        <v>958700</v>
       </c>
       <c r="I89" s="3">
-        <v>22016200</v>
+        <v>21284800</v>
       </c>
       <c r="J89" s="3">
-        <v>16064900</v>
+        <v>15531300</v>
       </c>
       <c r="K89" s="3">
         <v>6630600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2881,27 +2846,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-219500</v>
+        <v>-212200</v>
       </c>
       <c r="E91" s="3">
-        <v>-539500</v>
+        <v>-521500</v>
       </c>
       <c r="F91" s="3">
-        <v>-136800</v>
+        <v>-132300</v>
       </c>
       <c r="G91" s="3">
-        <v>-148600</v>
+        <v>-143600</v>
       </c>
       <c r="H91" s="3">
-        <v>-244100</v>
+        <v>-236000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1682100</v>
+        <v>-1626200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -2910,7 +2875,7 @@
         <v>-3578000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2939,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2968,27 +2933,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3686900</v>
+        <v>-3564500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6343500</v>
+        <v>-6132800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2853500</v>
+        <v>-2758700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2719900</v>
+        <v>-2629600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5440000</v>
+        <v>-5259300</v>
       </c>
       <c r="I94" s="3">
-        <v>-19684100</v>
+        <v>-19030200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -2997,7 +2962,7 @@
         <v>-3414800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3010,7 +2975,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3021,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1617100</v>
+        <v>-1563400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3030,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-4160100</v>
+        <v>-4021900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3039,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3068,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3097,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3126,27 +3091,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2090700</v>
+        <v>-2021200</v>
       </c>
       <c r="E100" s="3">
-        <v>674700</v>
+        <v>652300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6867700</v>
+        <v>-6639500</v>
       </c>
       <c r="G100" s="3">
-        <v>-6226800</v>
+        <v>-6020000</v>
       </c>
       <c r="H100" s="3">
-        <v>13801500</v>
+        <v>13343100</v>
       </c>
       <c r="I100" s="3">
-        <v>-3179100</v>
+        <v>-3073500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -3155,27 +3120,27 @@
         <v>-4061600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13100</v>
+        <v>-12600</v>
       </c>
       <c r="E101" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="F101" s="3">
-        <v>49900</v>
+        <v>48200</v>
       </c>
       <c r="G101" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="H101" s="3">
-        <v>-40200</v>
+        <v>-38900</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -3184,27 +3149,27 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-693100</v>
+        <v>-670100</v>
       </c>
       <c r="E102" s="3">
-        <v>1679100</v>
+        <v>1623300</v>
       </c>
       <c r="F102" s="3">
-        <v>-2376800</v>
+        <v>-2297800</v>
       </c>
       <c r="G102" s="3">
-        <v>62000</v>
+        <v>60000</v>
       </c>
       <c r="H102" s="3">
-        <v>9313000</v>
+        <v>9003700</v>
       </c>
       <c r="I102" s="3">
-        <v>-844600</v>
+        <v>-816500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
